--- a/02- Casos Netlogistik/Formato de cierre.xlsx
+++ b/02- Casos Netlogistik/Formato de cierre.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Notificación de cierre de caso</t>
   </si>
@@ -71,10 +71,40 @@
     <t>Causa de cierre</t>
   </si>
   <si>
-    <t>Instrucciones de cierre</t>
-  </si>
-  <si>
     <t>Aprobó cierre</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Solucionado</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palacio</t>
+  </si>
+  <si>
+    <t>24-07-2014</t>
+  </si>
+  <si>
+    <t>Sistema no permite cerrar camion</t>
+  </si>
+  <si>
+    <t>DLx no permite cerrar camion el cual ya se han completado los envios</t>
+  </si>
+  <si>
+    <t>Los surtidos para los envíos ya habian sido realizados pero el sistema no permitia cerrar el camion porque no actualizaba el estado</t>
+  </si>
+  <si>
+    <t>Actualizacion del estado del camion</t>
+  </si>
+  <si>
+    <t>Soporte Cedis</t>
   </si>
 </sst>
 </file>
@@ -258,6 +288,24 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -268,21 +316,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,9 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +607,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,22 +620,26 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>509561</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -615,7 +649,9 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -625,49 +661,63 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -677,23 +727,27 @@
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
